--- a/src/salary-data/drivers-results.xlsx
+++ b/src/salary-data/drivers-results.xlsx
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD32"/>
@@ -2565,12 +2565,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C37" s="31" t="n">
@@ -2603,6 +2603,48 @@
         <v>0</v>
       </c>
       <c r="N37" s="31" t="n">
+        <v>11557</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>19</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1474</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>293036</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>246479</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>21:05</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>11557</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="n"/>
+      <c r="M38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31" t="n">
         <v>11557</v>
       </c>
     </row>
@@ -2624,7 +2666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD24"/>
@@ -4186,12 +4228,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C30" s="31" t="n">
@@ -4228,6 +4270,52 @@
         <v>1244</v>
       </c>
       <c r="N30" s="31" t="n">
+        <v>30054</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" s="31" t="n">
+        <v>1559</v>
+      </c>
+      <c r="D31" s="31" t="n">
+        <v>405802</v>
+      </c>
+      <c r="E31" s="31" t="n">
+        <v>340748</v>
+      </c>
+      <c r="F31" s="10" t="inlineStr">
+        <is>
+          <t>50:36</t>
+        </is>
+      </c>
+      <c r="G31" s="31" t="n">
+        <v>28810</v>
+      </c>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="n"/>
+      <c r="K31" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="inlineStr">
+        <is>
+          <t>21:53</t>
+        </is>
+      </c>
+      <c r="M31" s="31" t="n">
+        <v>1244</v>
+      </c>
+      <c r="N31" s="31" t="n">
         <v>30054</v>
       </c>
     </row>
@@ -4249,7 +4337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD22"/>
@@ -5684,12 +5772,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C28" s="31" t="n">
@@ -5726,6 +5814,52 @@
         <v>3601</v>
       </c>
       <c r="N28" s="31" t="n">
+        <v>33141</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" s="31" t="n">
+        <v>1469</v>
+      </c>
+      <c r="D29" s="31" t="n">
+        <v>384955</v>
+      </c>
+      <c r="E29" s="31" t="n">
+        <v>311814</v>
+      </c>
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>54:01</t>
+        </is>
+      </c>
+      <c r="G29" s="31" t="n">
+        <v>29540</v>
+      </c>
+      <c r="H29" s="10" t="n"/>
+      <c r="I29" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="n"/>
+      <c r="K29" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10" t="inlineStr">
+        <is>
+          <t>23:27</t>
+        </is>
+      </c>
+      <c r="M29" s="31" t="n">
+        <v>3601</v>
+      </c>
+      <c r="N29" s="31" t="n">
         <v>33141</v>
       </c>
     </row>
@@ -7307,7 +7441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD30"/>
@@ -9128,12 +9262,12 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C35" s="31" t="n">
@@ -9170,6 +9304,52 @@
         <v>3396</v>
       </c>
       <c r="N35" s="31" t="n">
+        <v>31464</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>21</v>
+      </c>
+      <c r="C36" s="31" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D36" s="31" t="n">
+        <v>390844</v>
+      </c>
+      <c r="E36" s="31" t="n">
+        <v>324380</v>
+      </c>
+      <c r="F36" s="10" t="inlineStr">
+        <is>
+          <t>48:13</t>
+        </is>
+      </c>
+      <c r="G36" s="31" t="n">
+        <v>28068</v>
+      </c>
+      <c r="H36" s="10" t="n"/>
+      <c r="I36" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10" t="n"/>
+      <c r="K36" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="M36" s="31" t="n">
+        <v>3396</v>
+      </c>
+      <c r="N36" s="31" t="n">
         <v>31464</v>
       </c>
     </row>
@@ -9191,7 +9371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD29"/>
@@ -11068,12 +11248,12 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C35" s="31" t="n">
@@ -11114,6 +11294,56 @@
         <v>1171</v>
       </c>
       <c r="N35" s="31" t="n">
+        <v>41433</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>24</v>
+      </c>
+      <c r="C36" s="31" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D36" s="31" t="n">
+        <v>462919</v>
+      </c>
+      <c r="E36" s="31" t="n">
+        <v>386486</v>
+      </c>
+      <c r="F36" s="10" t="inlineStr">
+        <is>
+          <t>60:00</t>
+        </is>
+      </c>
+      <c r="G36" s="31" t="n">
+        <v>34806</v>
+      </c>
+      <c r="H36" s="10" t="inlineStr">
+        <is>
+          <t>5:22</t>
+        </is>
+      </c>
+      <c r="I36" s="31" t="n">
+        <v>5456</v>
+      </c>
+      <c r="J36" s="10" t="n"/>
+      <c r="K36" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10" t="inlineStr">
+        <is>
+          <t>26:18</t>
+        </is>
+      </c>
+      <c r="M36" s="31" t="n">
+        <v>1171</v>
+      </c>
+      <c r="N36" s="31" t="n">
         <v>41433</v>
       </c>
     </row>
@@ -11135,7 +11365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD29"/>
@@ -13025,12 +13255,12 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C35" s="31" t="n">
@@ -13071,6 +13301,56 @@
         <v>4753</v>
       </c>
       <c r="N35" s="31" t="n">
+        <v>46153</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>21</v>
+      </c>
+      <c r="C36" s="31" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D36" s="31" t="n">
+        <v>463673</v>
+      </c>
+      <c r="E36" s="31" t="n">
+        <v>377520</v>
+      </c>
+      <c r="F36" s="10" t="inlineStr">
+        <is>
+          <t>60:00</t>
+        </is>
+      </c>
+      <c r="G36" s="31" t="n">
+        <v>39692</v>
+      </c>
+      <c r="H36" s="10" t="inlineStr">
+        <is>
+          <t>1:29</t>
+        </is>
+      </c>
+      <c r="I36" s="31" t="n">
+        <v>1708</v>
+      </c>
+      <c r="J36" s="10" t="n"/>
+      <c r="K36" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10" t="inlineStr">
+        <is>
+          <t>21:57</t>
+        </is>
+      </c>
+      <c r="M36" s="31" t="n">
+        <v>4753</v>
+      </c>
+      <c r="N36" s="31" t="n">
         <v>46153</v>
       </c>
     </row>
@@ -13092,7 +13372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -15063,12 +15343,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C37" s="31" t="n">
@@ -15105,6 +15385,52 @@
         <v>3670</v>
       </c>
       <c r="N37" s="31" t="n">
+        <v>33696</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>23</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1926</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>476595</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>407899</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>45:25</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>30026</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+      <c r="M38" s="31" t="n">
+        <v>3670</v>
+      </c>
+      <c r="N38" s="31" t="n">
         <v>33696</v>
       </c>
     </row>
@@ -15126,7 +15452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -17046,12 +17372,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C37" s="31" t="n">
@@ -17084,6 +17410,48 @@
         <v>0</v>
       </c>
       <c r="N37" s="31" t="n">
+        <v>27180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>22</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1576</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>400760</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>338580</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>47:23</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>27180</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="n"/>
+      <c r="M38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31" t="n">
         <v>27180</v>
       </c>
     </row>
@@ -17105,7 +17473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -19097,12 +19465,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C37" s="31" t="n">
@@ -19139,6 +19507,52 @@
         <v>3125</v>
       </c>
       <c r="N37" s="31" t="n">
+        <v>30343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>363441</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>293098</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>44:26</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>27218</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="inlineStr">
+        <is>
+          <t>21:43</t>
+        </is>
+      </c>
+      <c r="M38" s="31" t="n">
+        <v>3125</v>
+      </c>
+      <c r="N38" s="31" t="n">
         <v>30343</v>
       </c>
     </row>
@@ -20309,7 +20723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -22233,12 +22647,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C37" s="31" t="n">
@@ -22275,6 +22689,52 @@
         <v>668</v>
       </c>
       <c r="N37" s="31" t="n">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025.04</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>19</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1603</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>296497</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>253284</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>7545</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="M38" s="31" t="n">
+        <v>668</v>
+      </c>
+      <c r="N38" s="31" t="n">
         <v>8213</v>
       </c>
     </row>

--- a/src/salary-data/drivers-results.xlsx
+++ b/src/salary-data/drivers-results.xlsx
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD32"/>
@@ -2607,12 +2607,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C38" s="31" t="n">
@@ -2646,6 +2646,144 @@
       </c>
       <c r="N38" s="31" t="n">
         <v>11557</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>1492</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>250437</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>207966</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>7019</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="M39" s="31" t="n">
+        <v>452</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C40" s="31" t="n">
+        <v>1492</v>
+      </c>
+      <c r="D40" s="31" t="n">
+        <v>250437</v>
+      </c>
+      <c r="E40" s="31" t="n">
+        <v>207966</v>
+      </c>
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="G40" s="31" t="n">
+        <v>7019</v>
+      </c>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="n"/>
+      <c r="K40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="M40" s="31" t="n">
+        <v>452</v>
+      </c>
+      <c r="N40" s="31" t="n">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>18</v>
+      </c>
+      <c r="C41" s="31" t="n">
+        <v>1492</v>
+      </c>
+      <c r="D41" s="31" t="n">
+        <v>250437</v>
+      </c>
+      <c r="E41" s="31" t="n">
+        <v>207966</v>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="G41" s="31" t="n">
+        <v>7019</v>
+      </c>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="n"/>
+      <c r="K41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="inlineStr">
+        <is>
+          <t>0:49</t>
+        </is>
+      </c>
+      <c r="M41" s="31" t="n">
+        <v>452</v>
+      </c>
+      <c r="N41" s="31" t="n">
+        <v>7471</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD24"/>
@@ -4274,12 +4412,12 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C31" s="31" t="n">
@@ -4317,6 +4455,144 @@
       </c>
       <c r="N31" s="31" t="n">
         <v>30054</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C32" s="31" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D32" s="31" t="n">
+        <v>410388</v>
+      </c>
+      <c r="E32" s="31" t="n">
+        <v>347928</v>
+      </c>
+      <c r="F32" s="10" t="inlineStr">
+        <is>
+          <t>40:18</t>
+        </is>
+      </c>
+      <c r="G32" s="31" t="n">
+        <v>23671</v>
+      </c>
+      <c r="H32" s="10" t="n"/>
+      <c r="I32" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="n"/>
+      <c r="K32" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10" t="inlineStr">
+        <is>
+          <t>21:32</t>
+        </is>
+      </c>
+      <c r="M32" s="31" t="n">
+        <v>3789</v>
+      </c>
+      <c r="N32" s="31" t="n">
+        <v>27460</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C33" s="31" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D33" s="31" t="n">
+        <v>410388</v>
+      </c>
+      <c r="E33" s="31" t="n">
+        <v>347928</v>
+      </c>
+      <c r="F33" s="10" t="inlineStr">
+        <is>
+          <t>40:18</t>
+        </is>
+      </c>
+      <c r="G33" s="31" t="n">
+        <v>23671</v>
+      </c>
+      <c r="H33" s="10" t="n"/>
+      <c r="I33" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="n"/>
+      <c r="K33" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10" t="inlineStr">
+        <is>
+          <t>21:32</t>
+        </is>
+      </c>
+      <c r="M33" s="31" t="n">
+        <v>3789</v>
+      </c>
+      <c r="N33" s="31" t="n">
+        <v>27460</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>22</v>
+      </c>
+      <c r="C34" s="31" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D34" s="31" t="n">
+        <v>410388</v>
+      </c>
+      <c r="E34" s="31" t="n">
+        <v>347928</v>
+      </c>
+      <c r="F34" s="10" t="inlineStr">
+        <is>
+          <t>40:18</t>
+        </is>
+      </c>
+      <c r="G34" s="31" t="n">
+        <v>23671</v>
+      </c>
+      <c r="H34" s="10" t="n"/>
+      <c r="I34" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10" t="n"/>
+      <c r="K34" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10" t="inlineStr">
+        <is>
+          <t>6:27</t>
+        </is>
+      </c>
+      <c r="M34" s="31" t="n">
+        <v>3789</v>
+      </c>
+      <c r="N34" s="31" t="n">
+        <v>27460</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD22"/>
@@ -5818,12 +6094,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C29" s="31" t="n">
@@ -5861,6 +6137,144 @@
       </c>
       <c r="N29" s="31" t="n">
         <v>33141</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" s="31" t="n">
+        <v>1502</v>
+      </c>
+      <c r="D30" s="31" t="n">
+        <v>336603</v>
+      </c>
+      <c r="E30" s="31" t="n">
+        <v>276646</v>
+      </c>
+      <c r="F30" s="10" t="inlineStr">
+        <is>
+          <t>30:41</t>
+        </is>
+      </c>
+      <c r="G30" s="31" t="n">
+        <v>17033</v>
+      </c>
+      <c r="H30" s="10" t="n"/>
+      <c r="I30" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="n"/>
+      <c r="K30" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10" t="inlineStr">
+        <is>
+          <t>17:48</t>
+        </is>
+      </c>
+      <c r="M30" s="31" t="n">
+        <v>2924</v>
+      </c>
+      <c r="N30" s="31" t="n">
+        <v>19957</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" s="31" t="n">
+        <v>1502</v>
+      </c>
+      <c r="D31" s="31" t="n">
+        <v>336603</v>
+      </c>
+      <c r="E31" s="31" t="n">
+        <v>276646</v>
+      </c>
+      <c r="F31" s="10" t="inlineStr">
+        <is>
+          <t>30:41</t>
+        </is>
+      </c>
+      <c r="G31" s="31" t="n">
+        <v>17033</v>
+      </c>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="n"/>
+      <c r="K31" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="inlineStr">
+        <is>
+          <t>17:48</t>
+        </is>
+      </c>
+      <c r="M31" s="31" t="n">
+        <v>2924</v>
+      </c>
+      <c r="N31" s="31" t="n">
+        <v>19957</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" s="31" t="n">
+        <v>1502</v>
+      </c>
+      <c r="D32" s="31" t="n">
+        <v>336603</v>
+      </c>
+      <c r="E32" s="31" t="n">
+        <v>276646</v>
+      </c>
+      <c r="F32" s="10" t="inlineStr">
+        <is>
+          <t>30:41</t>
+        </is>
+      </c>
+      <c r="G32" s="31" t="n">
+        <v>17033</v>
+      </c>
+      <c r="H32" s="10" t="n"/>
+      <c r="I32" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="n"/>
+      <c r="K32" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10" t="inlineStr">
+        <is>
+          <t>5:16</t>
+        </is>
+      </c>
+      <c r="M32" s="31" t="n">
+        <v>2924</v>
+      </c>
+      <c r="N32" s="31" t="n">
+        <v>19957</v>
       </c>
     </row>
   </sheetData>
@@ -7441,7 +7855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD30"/>
@@ -9308,12 +9722,12 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C36" s="31" t="n">
@@ -9351,6 +9765,144 @@
       </c>
       <c r="N36" s="31" t="n">
         <v>31464</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C37" s="31" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D37" s="31" t="n">
+        <v>404422</v>
+      </c>
+      <c r="E37" s="31" t="n">
+        <v>341951</v>
+      </c>
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>39:47</t>
+        </is>
+      </c>
+      <c r="G37" s="31" t="n">
+        <v>23914</v>
+      </c>
+      <c r="H37" s="10" t="n"/>
+      <c r="I37" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10" t="n"/>
+      <c r="K37" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="M37" s="31" t="n">
+        <v>3557</v>
+      </c>
+      <c r="N37" s="31" t="n">
+        <v>27471</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>404422</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>341951</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>39:47</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>23914</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="M38" s="31" t="n">
+        <v>3557</v>
+      </c>
+      <c r="N38" s="31" t="n">
+        <v>27471</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>22</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>404422</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>341951</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>39:47</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>23914</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="inlineStr">
+        <is>
+          <t>5:55</t>
+        </is>
+      </c>
+      <c r="M39" s="31" t="n">
+        <v>3557</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>27471</v>
       </c>
     </row>
   </sheetData>
@@ -9371,7 +9923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD29"/>
@@ -11298,12 +11850,12 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C36" s="31" t="n">
@@ -11345,6 +11897,144 @@
       </c>
       <c r="N36" s="31" t="n">
         <v>41433</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C37" s="31" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D37" s="31" t="n">
+        <v>428528</v>
+      </c>
+      <c r="E37" s="31" t="n">
+        <v>362296</v>
+      </c>
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>45:19</t>
+        </is>
+      </c>
+      <c r="G37" s="31" t="n">
+        <v>27490</v>
+      </c>
+      <c r="H37" s="10" t="n"/>
+      <c r="I37" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10" t="n"/>
+      <c r="K37" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10" t="inlineStr">
+        <is>
+          <t>23:36</t>
+        </is>
+      </c>
+      <c r="M37" s="31" t="n">
+        <v>3742</v>
+      </c>
+      <c r="N37" s="31" t="n">
+        <v>31232</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>428528</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>362296</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>45:19</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>27490</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="inlineStr">
+        <is>
+          <t>23:36</t>
+        </is>
+      </c>
+      <c r="M38" s="31" t="n">
+        <v>3742</v>
+      </c>
+      <c r="N38" s="31" t="n">
+        <v>31232</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>22</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>428528</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>362296</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>45:19</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>27490</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="inlineStr">
+        <is>
+          <t>6:10</t>
+        </is>
+      </c>
+      <c r="M39" s="31" t="n">
+        <v>3742</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>31232</v>
       </c>
     </row>
   </sheetData>
@@ -11365,7 +12055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD29"/>
@@ -13305,12 +13995,12 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C36" s="31" t="n">
@@ -13352,6 +14042,144 @@
       </c>
       <c r="N36" s="31" t="n">
         <v>46153</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" s="31" t="n">
+        <v>1694</v>
+      </c>
+      <c r="D37" s="31" t="n">
+        <v>418004</v>
+      </c>
+      <c r="E37" s="31" t="n">
+        <v>345946</v>
+      </c>
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>44:46</t>
+        </is>
+      </c>
+      <c r="G37" s="31" t="n">
+        <v>28607</v>
+      </c>
+      <c r="H37" s="10" t="n"/>
+      <c r="I37" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10" t="n"/>
+      <c r="K37" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="M37" s="31" t="n">
+        <v>3451</v>
+      </c>
+      <c r="N37" s="31" t="n">
+        <v>32058</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>1694</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>418004</v>
+      </c>
+      <c r="E38" s="31" t="n">
+        <v>345946</v>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>44:46</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>28607</v>
+      </c>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="M38" s="31" t="n">
+        <v>3451</v>
+      </c>
+      <c r="N38" s="31" t="n">
+        <v>32058</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>1694</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>418004</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>345946</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>44:46</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>28607</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="inlineStr">
+        <is>
+          <t>5:24</t>
+        </is>
+      </c>
+      <c r="M39" s="31" t="n">
+        <v>3451</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>32058</v>
       </c>
     </row>
   </sheetData>
@@ -13372,7 +14200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -15389,12 +16217,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C38" s="31" t="n">
@@ -15432,6 +16260,144 @@
       </c>
       <c r="N38" s="31" t="n">
         <v>33696</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>397140</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>344488</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>11628</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="M39" s="31" t="n">
+        <v>6024</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>17652</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C40" s="31" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D40" s="31" t="n">
+        <v>397140</v>
+      </c>
+      <c r="E40" s="31" t="n">
+        <v>344488</v>
+      </c>
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="G40" s="31" t="n">
+        <v>11628</v>
+      </c>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="n"/>
+      <c r="K40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="M40" s="31" t="n">
+        <v>6024</v>
+      </c>
+      <c r="N40" s="31" t="n">
+        <v>17652</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>19</v>
+      </c>
+      <c r="C41" s="31" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D41" s="31" t="n">
+        <v>397140</v>
+      </c>
+      <c r="E41" s="31" t="n">
+        <v>344488</v>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="G41" s="31" t="n">
+        <v>11628</v>
+      </c>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="n"/>
+      <c r="K41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="inlineStr">
+        <is>
+          <t>8:38</t>
+        </is>
+      </c>
+      <c r="M41" s="31" t="n">
+        <v>6024</v>
+      </c>
+      <c r="N41" s="31" t="n">
+        <v>17652</v>
       </c>
     </row>
   </sheetData>
@@ -15452,7 +16418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -17414,12 +18380,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C38" s="31" t="n">
@@ -17453,6 +18419,144 @@
       </c>
       <c r="N38" s="31" t="n">
         <v>27180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>1579</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>403314</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>345166</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>38:14</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>21960</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="M39" s="31" t="n">
+        <v>1188</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>23148</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C40" s="31" t="n">
+        <v>1579</v>
+      </c>
+      <c r="D40" s="31" t="n">
+        <v>403314</v>
+      </c>
+      <c r="E40" s="31" t="n">
+        <v>345166</v>
+      </c>
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>38:14</t>
+        </is>
+      </c>
+      <c r="G40" s="31" t="n">
+        <v>21960</v>
+      </c>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="n"/>
+      <c r="K40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="M40" s="31" t="n">
+        <v>1188</v>
+      </c>
+      <c r="N40" s="31" t="n">
+        <v>23148</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>23</v>
+      </c>
+      <c r="C41" s="31" t="n">
+        <v>1579</v>
+      </c>
+      <c r="D41" s="31" t="n">
+        <v>403314</v>
+      </c>
+      <c r="E41" s="31" t="n">
+        <v>345166</v>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>38:14</t>
+        </is>
+      </c>
+      <c r="G41" s="31" t="n">
+        <v>21960</v>
+      </c>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="n"/>
+      <c r="K41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="inlineStr">
+        <is>
+          <t>2:04</t>
+        </is>
+      </c>
+      <c r="M41" s="31" t="n">
+        <v>1188</v>
+      </c>
+      <c r="N41" s="31" t="n">
+        <v>23148</v>
       </c>
     </row>
   </sheetData>
@@ -17473,7 +18577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -19511,12 +20615,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C38" s="31" t="n">
@@ -19554,6 +20658,144 @@
       </c>
       <c r="N38" s="31" t="n">
         <v>30343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>477068</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>397490</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>56:35</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>35621</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="inlineStr">
+        <is>
+          <t>26:55</t>
+        </is>
+      </c>
+      <c r="M39" s="31" t="n">
+        <v>3957</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>39578</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C40" s="31" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D40" s="31" t="n">
+        <v>477068</v>
+      </c>
+      <c r="E40" s="31" t="n">
+        <v>397490</v>
+      </c>
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>56:35</t>
+        </is>
+      </c>
+      <c r="G40" s="31" t="n">
+        <v>35621</v>
+      </c>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="n"/>
+      <c r="K40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10" t="inlineStr">
+        <is>
+          <t>26:55</t>
+        </is>
+      </c>
+      <c r="M40" s="31" t="n">
+        <v>3957</v>
+      </c>
+      <c r="N40" s="31" t="n">
+        <v>39578</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>23</v>
+      </c>
+      <c r="C41" s="31" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D41" s="31" t="n">
+        <v>477068</v>
+      </c>
+      <c r="E41" s="31" t="n">
+        <v>397490</v>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>56:35</t>
+        </is>
+      </c>
+      <c r="G41" s="31" t="n">
+        <v>35621</v>
+      </c>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="n"/>
+      <c r="K41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="inlineStr">
+        <is>
+          <t>6:17</t>
+        </is>
+      </c>
+      <c r="M41" s="31" t="n">
+        <v>3957</v>
+      </c>
+      <c r="N41" s="31" t="n">
+        <v>39578</v>
       </c>
     </row>
   </sheetData>
@@ -20723,7 +21965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD31"/>
@@ -22693,12 +23935,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>2025.04</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C38" s="31" t="n">
@@ -22736,6 +23978,132 @@
       </c>
       <c r="N38" s="31" t="n">
         <v>8213</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>1574</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>225375</v>
+      </c>
+      <c r="E39" s="31" t="n">
+        <v>186076</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="n">
+        <v>4299</v>
+      </c>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="n"/>
+      <c r="M39" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="31" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C40" s="31" t="n">
+        <v>1574</v>
+      </c>
+      <c r="D40" s="31" t="n">
+        <v>225375</v>
+      </c>
+      <c r="E40" s="31" t="n">
+        <v>186076</v>
+      </c>
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="G40" s="31" t="n">
+        <v>4299</v>
+      </c>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="n"/>
+      <c r="K40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10" t="n"/>
+      <c r="M40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="31" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025.05</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>17</v>
+      </c>
+      <c r="C41" s="31" t="n">
+        <v>1574</v>
+      </c>
+      <c r="D41" s="31" t="n">
+        <v>225375</v>
+      </c>
+      <c r="E41" s="31" t="n">
+        <v>186076</v>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="G41" s="31" t="n">
+        <v>4299</v>
+      </c>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="n"/>
+      <c r="K41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="n"/>
+      <c r="M41" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="31" t="n">
+        <v>4299</v>
       </c>
     </row>
   </sheetData>
